--- a/out_booth_246/suspect_summary.xlsx
+++ b/out_booth_246/suspect_summary.xlsx
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>House number 1 on street '1-Ratchakar Street Ward No-10' contains 27 registered voters including serial number 8, which exceeds the household size threshold. | Serial number 8 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 1 on street '1-Ratchakar Street Ward No-10' contains 27 registered voters including serial number 8, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS, INVALID_EPIC_ID</t>
+          <t>BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>House number 1 on street '1-Ratchakar Street Ward No-10' contains 27 registered voters including serial number 14, which exceeds the household size threshold. | Serial number 14 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>House number 1 on street '1-Ratchakar Street Ward No-10' contains 27 registered voters including serial number 14, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -1834,18 +1834,10 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Serial number 18 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2278,16 +2270,16 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, HOUSE_NO_UNAVAILABLE, INVALID_EPIC_ID</t>
+          <t>AGE_ZERO_OR_INVALID, HOUSE_NO_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Serial number 24 was flagged due to rule: INVALID_EPIC_ID. | Serial number 24 has invalid age value 0. | Serial number 24 does not have a valid house number recorded.</t>
+          <t>Serial number 24 has invalid age value 0. | Serial number 24 does not have a valid house number recorded.</t>
         </is>
       </c>
     </row>
@@ -2796,10 +2788,18 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Serial number 31 does not have any valid parent or spouse relationship with other voters in house number 1A on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2862,10 +2862,18 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Serial number 32 does not have any valid parent or spouse relationship with other voters in house number 1A on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5094,10 +5102,18 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Serial number 64 does not have any valid parent or spouse relationship with other voters in house number 4 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,18 +5926,10 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Serial number 76 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6766,16 +6774,16 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Serial number 88 is the only voter listed under house number 36/1A.K.G on street '1-Ratchakar Street Ward No-10' in booth 246. | Serial number 88 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 88 is the only voter listed under house number 36/1A.K.G on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
         </is>
       </c>
     </row>
@@ -6840,16 +6848,16 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Serial number 89 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 89 does not have any valid parent or spouse relationship with other voters in house number 6 on street '1-Ratchakar Street Ward No-10'. | Serial number 89 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -6988,10 +6996,18 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Serial number 91 does not have any valid parent or spouse relationship with other voters in house number 6 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7400,10 +7416,18 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Serial number 97 does not have any valid parent or spouse relationship with other voters in house number 7 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7466,10 +7490,18 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Serial number 98 does not have any valid parent or spouse relationship with other voters in house number 7 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7664,16 +7696,16 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Serial number 101 is the only voter listed under house number 7A on street '1-Ratchakar Street Ward No-10' in booth 246. | Serial number 101 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 101 is the only voter listed under house number 7A on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
         </is>
       </c>
     </row>
@@ -7812,16 +7844,16 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Serial number 103 is the only voter listed under house number 8 on street '1-Ratchakar Street Ward No-10' in booth 246. | Serial number 103 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 103 is the only voter listed under house number 8 on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
         </is>
       </c>
     </row>
@@ -8330,10 +8362,18 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Serial number 110 does not have any valid parent or spouse relationship with other voters in house number 9 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -8396,10 +8436,18 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Serial number 111 does not have any valid parent or spouse relationship with other voters in house number 9 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -9220,10 +9268,18 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Serial number 123 does not have any valid parent or spouse relationship with other voters in house number 10 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -9690,18 +9746,10 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>Serial number 130 is the only voter listed under house number 10/1 on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -14186,10 +14234,18 @@
         </is>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>Serial number 194 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -14322,12 +14378,12 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>Serial number 196 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 196 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-Ratchakar Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -16092,12 +16148,12 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>Serial number 221 is the only voter listed under house number 22-8 on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
+          <t>Serial number 221 does not have any valid parent or spouse relationship with other voters in house number 22-8 on street '1-Ratchakar Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -16162,18 +16218,10 @@
         </is>
       </c>
       <c r="N223" t="n">
-        <v>1</v>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P223" t="inlineStr">
-        <is>
-          <t>Serial number 222 is the only voter listed under house number 22/8 on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -16314,12 +16362,12 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>Serial number 224 is the only voter listed under house number 24-10 on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
+          <t>Serial number 224 does not have any valid parent or spouse relationship with other voters in house number 24-10 on street '1-Ratchakar Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -16384,10 +16432,18 @@
         </is>
       </c>
       <c r="N226" t="n">
-        <v>0</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Serial number 225 does not have any valid parent or spouse relationship with other voters in house number 24/10 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -18618,18 +18674,10 @@
         </is>
       </c>
       <c r="N259" t="n">
-        <v>1</v>
-      </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P259" t="inlineStr">
-        <is>
-          <t>Serial number 258 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -19268,10 +19316,18 @@
         </is>
       </c>
       <c r="N268" t="n">
-        <v>0</v>
-      </c>
-      <c r="O268" t="inlineStr"/>
-      <c r="P268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>Serial number 267 does not have any valid parent or spouse relationship with other voters in house number 33 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -19334,10 +19390,18 @@
         </is>
       </c>
       <c r="N269" t="n">
-        <v>0</v>
-      </c>
-      <c r="O269" t="inlineStr"/>
-      <c r="P269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>Serial number 268 does not have any valid parent or spouse relationship with other voters in house number 33 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -19680,10 +19744,18 @@
         </is>
       </c>
       <c r="N274" t="n">
-        <v>0</v>
-      </c>
-      <c r="O274" t="inlineStr"/>
-      <c r="P274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>Serial number 273 does not have any valid parent or spouse relationship with other voters in house number 33C on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -19746,10 +19818,18 @@
         </is>
       </c>
       <c r="N275" t="n">
-        <v>0</v>
-      </c>
-      <c r="O275" t="inlineStr"/>
-      <c r="P275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>Serial number 274 does not have any valid parent or spouse relationship with other voters in house number 33c on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -21238,18 +21318,10 @@
         </is>
       </c>
       <c r="N297" t="n">
-        <v>1</v>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>Serial number 296 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O297" t="inlineStr"/>
+      <c r="P297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -22032,12 +22104,12 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>Serial number 307 is the only voter listed under house number 36D-2 on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
+          <t>Serial number 307 does not have any valid parent or spouse relationship with other voters in house number 36D-2 on street '1-Ratchakar Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -22106,12 +22178,12 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
         <is>
-          <t>Serial number 308 is the only voter listed under house number 36d/2 on street '1-Ratchakar Street Ward No-10' in booth 246.</t>
+          <t>Serial number 308 does not have any valid parent or spouse relationship with other voters in house number 36d/2 on street '1-Ratchakar Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -24992,16 +25064,16 @@
         </is>
       </c>
       <c r="N350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>Serial number 349 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 349 does not have any valid parent or spouse relationship with other voters in house number 43 on street '1-Ratchakar Street Ward No-10'. | Serial number 349 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -25066,10 +25138,18 @@
         </is>
       </c>
       <c r="N351" t="n">
-        <v>0</v>
-      </c>
-      <c r="O351" t="inlineStr"/>
-      <c r="P351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>Serial number 350 does not have any valid parent or spouse relationship with other voters in house number 43 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -25338,18 +25418,10 @@
         </is>
       </c>
       <c r="N355" t="n">
-        <v>1</v>
-      </c>
-      <c r="O355" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P355" t="inlineStr">
-        <is>
-          <t>Serial number 354 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -25560,10 +25632,18 @@
         </is>
       </c>
       <c r="N358" t="n">
-        <v>0</v>
-      </c>
-      <c r="O358" t="inlineStr"/>
-      <c r="P358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>Serial number 357 does not have any valid parent or spouse relationship with other voters in house number 45 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -25832,10 +25912,18 @@
         </is>
       </c>
       <c r="N362" t="n">
-        <v>0</v>
-      </c>
-      <c r="O362" t="inlineStr"/>
-      <c r="P362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>Serial number 361 does not have any valid parent or spouse relationship with other voters in house number 45 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -25898,10 +25986,18 @@
         </is>
       </c>
       <c r="N363" t="n">
-        <v>0</v>
-      </c>
-      <c r="O363" t="inlineStr"/>
-      <c r="P363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>Serial number 362 does not have any valid parent or spouse relationship with other voters in house number 45 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -26318,10 +26414,18 @@
         </is>
       </c>
       <c r="N369" t="n">
-        <v>0</v>
-      </c>
-      <c r="O369" t="inlineStr"/>
-      <c r="P369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>Serial number 368 does not have any valid parent or spouse relationship with other voters in house number 46,C on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -26384,10 +26488,18 @@
         </is>
       </c>
       <c r="N370" t="n">
-        <v>0</v>
-      </c>
-      <c r="O370" t="inlineStr"/>
-      <c r="P370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>Serial number 369 does not have any valid parent or spouse relationship with other voters in house number 46,C on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -29776,10 +29888,18 @@
         </is>
       </c>
       <c r="N418" t="n">
-        <v>0</v>
-      </c>
-      <c r="O418" t="inlineStr"/>
-      <c r="P418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>Serial number 417 does not have any valid parent or spouse relationship with other voters in house number 55 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -29842,10 +29962,18 @@
         </is>
       </c>
       <c r="N419" t="n">
-        <v>0</v>
-      </c>
-      <c r="O419" t="inlineStr"/>
-      <c r="P419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>Serial number 418 does not have any valid parent or spouse relationship with other voters in house number 55 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -30674,10 +30802,18 @@
         </is>
       </c>
       <c r="N431" t="n">
-        <v>0</v>
-      </c>
-      <c r="O431" t="inlineStr"/>
-      <c r="P431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>Serial number 430 does not have any valid parent or spouse relationship with other voters in house number 57 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -30740,10 +30876,18 @@
         </is>
       </c>
       <c r="N432" t="n">
-        <v>0</v>
-      </c>
-      <c r="O432" t="inlineStr"/>
-      <c r="P432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>Serial number 431 does not have any valid parent or spouse relationship with other voters in house number 57 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -31102,16 +31246,16 @@
         </is>
       </c>
       <c r="N437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P437" t="inlineStr">
         <is>
-          <t>Serial number 436 does not have any valid parent or spouse relationship with other voters in house number 59 on street '1-Ratchakar Street Ward No-10'. | Serial number 436 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 436 does not have any valid parent or spouse relationship with other voters in house number 59 on street '1-Ratchakar Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -32626,10 +32770,18 @@
         </is>
       </c>
       <c r="N459" t="n">
-        <v>0</v>
-      </c>
-      <c r="O459" t="inlineStr"/>
-      <c r="P459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>Serial number 458 does not have any valid parent or spouse relationship with other voters in house number 68 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -32692,18 +32844,10 @@
         </is>
       </c>
       <c r="N460" t="n">
-        <v>1</v>
-      </c>
-      <c r="O460" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P460" t="inlineStr">
-        <is>
-          <t>Serial number 459 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O460" t="inlineStr"/>
+      <c r="P460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -32832,10 +32976,18 @@
         </is>
       </c>
       <c r="N462" t="n">
-        <v>0</v>
-      </c>
-      <c r="O462" t="inlineStr"/>
-      <c r="P462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>Serial number 461 does not have any valid parent or spouse relationship with other voters in house number 68 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -35016,10 +35168,18 @@
         </is>
       </c>
       <c r="N494" t="n">
-        <v>0</v>
-      </c>
-      <c r="O494" t="inlineStr"/>
-      <c r="P494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>Serial number 493 does not have any valid parent or spouse relationship with other voters in house number 78 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -35494,10 +35654,18 @@
         </is>
       </c>
       <c r="N501" t="n">
-        <v>0</v>
-      </c>
-      <c r="O501" t="inlineStr"/>
-      <c r="P501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>Serial number 500 does not have any valid parent or spouse relationship with other voters in house number 79/5 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -35560,10 +35728,18 @@
         </is>
       </c>
       <c r="N502" t="n">
-        <v>0</v>
-      </c>
-      <c r="O502" t="inlineStr"/>
-      <c r="P502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>Serial number 501 does not have any valid parent or spouse relationship with other voters in house number 79/5 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -36672,10 +36848,18 @@
         </is>
       </c>
       <c r="N518" t="n">
-        <v>0</v>
-      </c>
-      <c r="O518" t="inlineStr"/>
-      <c r="P518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>Serial number 517 does not have any valid parent or spouse relationship with other voters in house number 89 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -36738,10 +36922,18 @@
         </is>
       </c>
       <c r="N519" t="n">
-        <v>0</v>
-      </c>
-      <c r="O519" t="inlineStr"/>
-      <c r="P519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>Serial number 518 does not have any valid parent or spouse relationship with other voters in house number 89 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -37076,10 +37268,18 @@
         </is>
       </c>
       <c r="N524" t="n">
-        <v>0</v>
-      </c>
-      <c r="O524" t="inlineStr"/>
-      <c r="P524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>Serial number 523 does not have any valid parent or spouse relationship with other voters in house number 94 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -37142,10 +37342,18 @@
         </is>
       </c>
       <c r="N525" t="n">
-        <v>0</v>
-      </c>
-      <c r="O525" t="inlineStr"/>
-      <c r="P525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>Serial number 524 does not have any valid parent or spouse relationship with other voters in house number 94 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -38032,10 +38240,18 @@
         </is>
       </c>
       <c r="N538" t="n">
-        <v>0</v>
-      </c>
-      <c r="O538" t="inlineStr"/>
-      <c r="P538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P538" t="inlineStr">
+        <is>
+          <t>Serial number 537 does not have any valid parent or spouse relationship with other voters in house number 110 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -38230,10 +38446,18 @@
         </is>
       </c>
       <c r="N541" t="n">
-        <v>0</v>
-      </c>
-      <c r="O541" t="inlineStr"/>
-      <c r="P541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>Serial number 540 does not have any valid parent or spouse relationship with other voters in house number 110 on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -38428,10 +38652,18 @@
         </is>
       </c>
       <c r="N544" t="n">
-        <v>0</v>
-      </c>
-      <c r="O544" t="inlineStr"/>
-      <c r="P544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>Serial number 543 does not have any valid parent or spouse relationship with other voters in house number 110a on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -38494,10 +38726,18 @@
         </is>
       </c>
       <c r="N545" t="n">
-        <v>0</v>
-      </c>
-      <c r="O545" t="inlineStr"/>
-      <c r="P545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>Serial number 544 does not have any valid parent or spouse relationship with other voters in house number 110a on street '1-Ratchakar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -42008,10 +42248,18 @@
         </is>
       </c>
       <c r="N594" t="n">
-        <v>0</v>
-      </c>
-      <c r="O594" t="inlineStr"/>
-      <c r="P594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P594" t="inlineStr">
+        <is>
+          <t>Serial number 593 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -42140,10 +42388,18 @@
         </is>
       </c>
       <c r="N596" t="n">
-        <v>0</v>
-      </c>
-      <c r="O596" t="inlineStr"/>
-      <c r="P596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P596" t="inlineStr">
+        <is>
+          <t>Serial number 595 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -42206,10 +42462,18 @@
         </is>
       </c>
       <c r="N597" t="n">
-        <v>0</v>
-      </c>
-      <c r="O597" t="inlineStr"/>
-      <c r="P597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P597" t="inlineStr">
+        <is>
+          <t>Serial number 596 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -42412,10 +42676,18 @@
         </is>
       </c>
       <c r="N600" t="n">
-        <v>0</v>
-      </c>
-      <c r="O600" t="inlineStr"/>
-      <c r="P600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P600" t="inlineStr">
+        <is>
+          <t>Serial number 599 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -43450,18 +43722,10 @@
         </is>
       </c>
       <c r="N615" t="n">
-        <v>1</v>
-      </c>
-      <c r="O615" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P615" t="inlineStr">
-        <is>
-          <t>Serial number 614 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O615" t="inlineStr"/>
+      <c r="P615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -44612,10 +44876,18 @@
         </is>
       </c>
       <c r="N632" t="n">
-        <v>0</v>
-      </c>
-      <c r="O632" t="inlineStr"/>
-      <c r="P632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P632" t="inlineStr">
+        <is>
+          <t>Serial number 631 does not have any valid parent or spouse relationship with other voters in house number 64 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -45444,16 +45716,16 @@
         </is>
       </c>
       <c r="N644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P644" t="inlineStr">
         <is>
-          <t>Serial number 643 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 643 does not have any valid parent or spouse relationship with other voters in house number 7F on street '2-East Street Ward No-10'. | Serial number 643 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -45522,12 +45794,12 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P645" t="inlineStr">
         <is>
-          <t>Serial number 644 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 644 does not have any valid parent or spouse relationship with other voters in house number 7F on street '2-East Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -45666,16 +45938,16 @@
         </is>
       </c>
       <c r="N647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P647" t="inlineStr">
         <is>
-          <t>Serial number 646 is the only voter listed under house number 84 on street '2-East Street Ward No-10' in booth 246. | Serial number 646 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 646 is the only voter listed under house number 84 on street '2-East Street Ward No-10' in booth 246.</t>
         </is>
       </c>
     </row>
@@ -47652,18 +47924,10 @@
         </is>
       </c>
       <c r="N676" t="n">
-        <v>1</v>
-      </c>
-      <c r="O676" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P676" t="inlineStr">
-        <is>
-          <t>Serial number 675 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O676" t="inlineStr"/>
+      <c r="P676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -48590,16 +48854,16 @@
         </is>
       </c>
       <c r="N689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P689" t="inlineStr">
         <is>
-          <t>House number 12 on street '2-East Street Ward No-10' contains 11 registered voters including serial number 688, which exceeds the household size threshold.</t>
+          <t>Serial number 688 does not have any valid parent or spouse relationship with other voters in house number 12 on street '2-East Street Ward No-10'. | House number 12 on street '2-East Street Ward No-10' contains 11 registered voters including serial number 688, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -49174,18 +49438,10 @@
         </is>
       </c>
       <c r="N697" t="n">
-        <v>1</v>
-      </c>
-      <c r="O697" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P697" t="inlineStr">
-        <is>
-          <t>Serial number 696 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O697" t="inlineStr"/>
+      <c r="P697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -49454,10 +49710,18 @@
         </is>
       </c>
       <c r="N701" t="n">
-        <v>0</v>
-      </c>
-      <c r="O701" t="inlineStr"/>
-      <c r="P701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O701" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P701" t="inlineStr">
+        <is>
+          <t>Serial number 700 does not have any valid parent or spouse relationship with other voters in house number 15 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -49652,10 +49916,18 @@
         </is>
       </c>
       <c r="N704" t="n">
-        <v>0</v>
-      </c>
-      <c r="O704" t="inlineStr"/>
-      <c r="P704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O704" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P704" t="inlineStr">
+        <is>
+          <t>Serial number 703 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -49784,10 +50056,18 @@
         </is>
       </c>
       <c r="N706" t="n">
-        <v>0</v>
-      </c>
-      <c r="O706" t="inlineStr"/>
-      <c r="P706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O706" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P706" t="inlineStr">
+        <is>
+          <t>Serial number 705 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -49990,10 +50270,18 @@
         </is>
       </c>
       <c r="N709" t="n">
-        <v>0</v>
-      </c>
-      <c r="O709" t="inlineStr"/>
-      <c r="P709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O709" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P709" t="inlineStr">
+        <is>
+          <t>Serial number 708 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -50056,10 +50344,18 @@
         </is>
       </c>
       <c r="N710" t="n">
-        <v>0</v>
-      </c>
-      <c r="O710" t="inlineStr"/>
-      <c r="P710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P710" t="inlineStr">
+        <is>
+          <t>Serial number 709 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -50320,10 +50616,18 @@
         </is>
       </c>
       <c r="N714" t="n">
-        <v>0</v>
-      </c>
-      <c r="O714" t="inlineStr"/>
-      <c r="P714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P714" t="inlineStr">
+        <is>
+          <t>Serial number 713 does not have any valid parent or spouse relationship with other voters in house number 164 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -50452,10 +50756,18 @@
         </is>
       </c>
       <c r="N716" t="n">
-        <v>0</v>
-      </c>
-      <c r="O716" t="inlineStr"/>
-      <c r="P716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O716" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P716" t="inlineStr">
+        <is>
+          <t>Serial number 715 does not have any valid parent or spouse relationship with other voters in house number 164 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -51416,18 +51728,10 @@
         </is>
       </c>
       <c r="N730" t="n">
-        <v>1</v>
-      </c>
-      <c r="O730" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P730" t="inlineStr">
-        <is>
-          <t>Serial number 729 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O730" t="inlineStr"/>
+      <c r="P730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -51490,10 +51794,18 @@
         </is>
       </c>
       <c r="N731" t="n">
-        <v>0</v>
-      </c>
-      <c r="O731" t="inlineStr"/>
-      <c r="P731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O731" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P731" t="inlineStr">
+        <is>
+          <t>Serial number 730 does not have any valid parent or spouse relationship with other voters in house number 20 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -51556,10 +51868,18 @@
         </is>
       </c>
       <c r="N732" t="n">
-        <v>0</v>
-      </c>
-      <c r="O732" t="inlineStr"/>
-      <c r="P732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O732" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P732" t="inlineStr">
+        <is>
+          <t>Serial number 731 does not have any valid parent or spouse relationship with other voters in house number 20 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -51688,10 +52008,18 @@
         </is>
       </c>
       <c r="N734" t="n">
-        <v>0</v>
-      </c>
-      <c r="O734" t="inlineStr"/>
-      <c r="P734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O734" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P734" t="inlineStr">
+        <is>
+          <t>Serial number 733 does not have any valid parent or spouse relationship with other voters in house number 20 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
@@ -52248,16 +52576,16 @@
         </is>
       </c>
       <c r="N742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P742" t="inlineStr">
         <is>
-          <t>Serial number 741 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 741 does not have any valid parent or spouse relationship with other voters in house number 20 on street '2-East Street Ward No-10'. | Serial number 741 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -52610,18 +52938,10 @@
         </is>
       </c>
       <c r="N747" t="n">
-        <v>1</v>
-      </c>
-      <c r="O747" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P747" t="inlineStr">
-        <is>
-          <t>Serial number 746 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O747" t="inlineStr"/>
+      <c r="P747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="n">
@@ -52684,10 +53004,18 @@
         </is>
       </c>
       <c r="N748" t="n">
-        <v>0</v>
-      </c>
-      <c r="O748" t="inlineStr"/>
-      <c r="P748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O748" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P748" t="inlineStr">
+        <is>
+          <t>Serial number 747 does not have any valid parent or spouse relationship with other voters in house number 21 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
@@ -52750,10 +53078,18 @@
         </is>
       </c>
       <c r="N749" t="n">
-        <v>0</v>
-      </c>
-      <c r="O749" t="inlineStr"/>
-      <c r="P749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O749" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P749" t="inlineStr">
+        <is>
+          <t>Serial number 748 does not have any valid parent or spouse relationship with other voters in house number 21 on street '2-East Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
@@ -52816,18 +53152,10 @@
         </is>
       </c>
       <c r="N750" t="n">
-        <v>1</v>
-      </c>
-      <c r="O750" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P750" t="inlineStr">
-        <is>
-          <t>Serial number 749 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O750" t="inlineStr"/>
+      <c r="P750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -54306,18 +54634,10 @@
         </is>
       </c>
       <c r="N771" t="n">
-        <v>1</v>
-      </c>
-      <c r="O771" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P771" t="inlineStr">
-        <is>
-          <t>Serial number 770 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O771" t="inlineStr"/>
+      <c r="P771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="n">
@@ -54446,16 +54766,16 @@
         </is>
       </c>
       <c r="N773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P773" t="inlineStr">
         <is>
-          <t>Serial number 772 is the only voter listed under house number 38-1 on street '2-East Street Ward No-10' in booth 246. | Serial number 772 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 772 is the only voter listed under house number 38-1 on street '2-East Street Ward No-10' in booth 246.</t>
         </is>
       </c>
     </row>
@@ -58752,10 +59072,18 @@
         </is>
       </c>
       <c r="N834" t="n">
-        <v>0</v>
-      </c>
-      <c r="O834" t="inlineStr"/>
-      <c r="P834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P834" t="inlineStr">
+        <is>
+          <t>Serial number 833 does not have any valid parent or spouse relationship with other voters in house number 1 on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -58950,10 +59278,18 @@
         </is>
       </c>
       <c r="N837" t="n">
-        <v>0</v>
-      </c>
-      <c r="O837" t="inlineStr"/>
-      <c r="P837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O837" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P837" t="inlineStr">
+        <is>
+          <t>Serial number 836 does not have any valid parent or spouse relationship with other voters in house number 1 on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
@@ -59082,10 +59418,18 @@
         </is>
       </c>
       <c r="N839" t="n">
-        <v>0</v>
-      </c>
-      <c r="O839" t="inlineStr"/>
-      <c r="P839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O839" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P839" t="inlineStr">
+        <is>
+          <t>Serial number 838 does not have any valid parent or spouse relationship with other voters in house number 2 on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
@@ -59222,10 +59566,18 @@
         </is>
       </c>
       <c r="N841" t="n">
-        <v>0</v>
-      </c>
-      <c r="O841" t="inlineStr"/>
-      <c r="P841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O841" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P841" t="inlineStr">
+        <is>
+          <t>Serial number 840 does not have any valid parent or spouse relationship with other voters in house number 2 on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
@@ -59510,18 +59862,10 @@
         </is>
       </c>
       <c r="N845" t="n">
-        <v>1</v>
-      </c>
-      <c r="O845" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P845" t="inlineStr">
-        <is>
-          <t>Serial number 844 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O845" t="inlineStr"/>
+      <c r="P845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" t="n">
@@ -60588,10 +60932,18 @@
         </is>
       </c>
       <c r="N860" t="n">
-        <v>0</v>
-      </c>
-      <c r="O860" t="inlineStr"/>
-      <c r="P860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O860" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P860" t="inlineStr">
+        <is>
+          <t>Serial number 859 does not have any valid parent or spouse relationship with other voters in house number 9A on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
@@ -61066,10 +61418,18 @@
         </is>
       </c>
       <c r="N867" t="n">
-        <v>0</v>
-      </c>
-      <c r="O867" t="inlineStr"/>
-      <c r="P867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O867" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P867" t="inlineStr">
+        <is>
+          <t>Serial number 866 does not have any valid parent or spouse relationship with other voters in house number 12-10 on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
@@ -61132,10 +61492,18 @@
         </is>
       </c>
       <c r="N868" t="n">
-        <v>0</v>
-      </c>
-      <c r="O868" t="inlineStr"/>
-      <c r="P868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O868" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P868" t="inlineStr">
+        <is>
+          <t>Serial number 867 does not have any valid parent or spouse relationship with other voters in house number 12-10 on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
@@ -61708,16 +62076,16 @@
         </is>
       </c>
       <c r="N876" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P876" t="inlineStr">
         <is>
-          <t>Serial number 875 is the only voter listed under house number 19 on street '3-South Street Ward No-10' in booth 246. | Serial number 875 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 875 is the only voter listed under house number 19 on street '3-South Street Ward No-10' in booth 246.</t>
         </is>
       </c>
     </row>
@@ -62004,16 +62372,16 @@
         </is>
       </c>
       <c r="N880" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P880" t="inlineStr">
         <is>
-          <t>Serial number 879 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 879 does not have any valid parent or spouse relationship with other voters in house number 23 on street '3-South Street Ward No-10'. | Serial number 879 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -62078,16 +62446,16 @@
         </is>
       </c>
       <c r="N881" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P881" t="inlineStr">
         <is>
-          <t>Serial number 880 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 880 does not have any valid parent or spouse relationship with other voters in house number 23 on street '3-South Street Ward No-10'. | Serial number 880 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -62564,16 +62932,16 @@
         </is>
       </c>
       <c r="N888" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P888" t="inlineStr">
         <is>
-          <t>Serial number 887 is the only voter listed under house number 28 on street '3-South Street Ward No-10' in booth 246. | Serial number 887 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 887 is the only voter listed under house number 28 on street '3-South Street Ward No-10' in booth 246.</t>
         </is>
       </c>
     </row>
@@ -62786,18 +63154,10 @@
         </is>
       </c>
       <c r="N891" t="n">
-        <v>1</v>
-      </c>
-      <c r="O891" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P891" t="inlineStr">
-        <is>
-          <t>Serial number 890 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O891" t="inlineStr"/>
+      <c r="P891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="n">
@@ -63576,10 +63936,18 @@
         </is>
       </c>
       <c r="N902" t="n">
-        <v>0</v>
-      </c>
-      <c r="O902" t="inlineStr"/>
-      <c r="P902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O902" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P902" t="inlineStr">
+        <is>
+          <t>Serial number 901 does not have any valid parent or spouse relationship with other voters in house number 60 on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
@@ -63642,10 +64010,18 @@
         </is>
       </c>
       <c r="N903" t="n">
-        <v>0</v>
-      </c>
-      <c r="O903" t="inlineStr"/>
-      <c r="P903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O903" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P903" t="inlineStr">
+        <is>
+          <t>Serial number 902 does not have any valid parent or spouse relationship with other voters in house number 60 on street '3-South Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
@@ -64408,16 +64784,16 @@
         </is>
       </c>
       <c r="N914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P914" t="inlineStr">
         <is>
-          <t>Serial number 913 is the only voter listed under house number 73-14 on street '3-South Street Ward No-10' in booth 246. | Serial number 913 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 913 is the only voter listed under house number 73-14 on street '3-South Street Ward No-10' in booth 246.</t>
         </is>
       </c>
     </row>
@@ -65116,10 +65492,18 @@
         </is>
       </c>
       <c r="N924" t="n">
-        <v>0</v>
-      </c>
-      <c r="O924" t="inlineStr"/>
-      <c r="P924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O924" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P924" t="inlineStr">
+        <is>
+          <t>Serial number 923 does not have any valid parent or spouse relationship with other voters in house number 2 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
@@ -66936,10 +67320,18 @@
         </is>
       </c>
       <c r="N950" t="n">
-        <v>0</v>
-      </c>
-      <c r="O950" t="inlineStr"/>
-      <c r="P950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O950" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P950" t="inlineStr">
+        <is>
+          <t>Serial number 949 does not have any valid parent or spouse relationship with other voters in house number 94 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
@@ -69944,10 +70336,18 @@
         </is>
       </c>
       <c r="N994" t="n">
-        <v>0</v>
-      </c>
-      <c r="O994" t="inlineStr"/>
-      <c r="P994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O994" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P994" t="inlineStr">
+        <is>
+          <t>Serial number 993 does not have any valid parent or spouse relationship with other voters in house number 33 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
@@ -70586,16 +70986,16 @@
         </is>
       </c>
       <c r="N1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>HOUSE_NO_UNAVAILABLE, INVALID_EPIC_ID</t>
+          <t>HOUSE_NO_UNAVAILABLE</t>
         </is>
       </c>
       <c r="P1003" t="inlineStr">
         <is>
-          <t>Serial number 1002 was flagged due to rule: INVALID_EPIC_ID. | Serial number 1002 does not have a valid house number recorded.</t>
+          <t>Serial number 1002 does not have a valid house number recorded.</t>
         </is>
       </c>
     </row>
@@ -71328,10 +71728,18 @@
         </is>
       </c>
       <c r="N1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1014" t="inlineStr"/>
-      <c r="P1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1014" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1014" t="inlineStr">
+        <is>
+          <t>Serial number 1013 does not have any valid parent or spouse relationship with other voters in house number 40 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
@@ -71394,10 +71802,18 @@
         </is>
       </c>
       <c r="N1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1015" t="inlineStr"/>
-      <c r="P1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1015" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1015" t="inlineStr">
+        <is>
+          <t>Serial number 1014 does not have any valid parent or spouse relationship with other voters in house number 40 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
@@ -71526,10 +71942,18 @@
         </is>
       </c>
       <c r="N1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1017" t="inlineStr"/>
-      <c r="P1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1017" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1017" t="inlineStr">
+        <is>
+          <t>Serial number 1016 does not have any valid parent or spouse relationship with other voters in house number 40 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
@@ -72326,10 +72750,18 @@
         </is>
       </c>
       <c r="N1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1029" t="inlineStr"/>
-      <c r="P1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1029" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1029" t="inlineStr">
+        <is>
+          <t>Serial number 1028 does not have any valid parent or spouse relationship with other voters in house number 44 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
@@ -72458,10 +72890,18 @@
         </is>
       </c>
       <c r="N1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1031" t="inlineStr"/>
-      <c r="P1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1031" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1031" t="inlineStr">
+        <is>
+          <t>Serial number 1030 does not have any valid parent or spouse relationship with other voters in house number 44 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
@@ -73052,10 +73492,18 @@
         </is>
       </c>
       <c r="N1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1040" t="inlineStr"/>
-      <c r="P1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1040" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1040" t="inlineStr">
+        <is>
+          <t>Serial number 1039 does not have any valid parent or spouse relationship with other voters in house number 47 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
@@ -73778,10 +74226,18 @@
         </is>
       </c>
       <c r="N1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1051" t="inlineStr"/>
-      <c r="P1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1051" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1051" t="inlineStr">
+        <is>
+          <t>Serial number 1050 does not have any valid parent or spouse relationship with other voters in house number 49 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
@@ -74124,10 +74580,18 @@
         </is>
       </c>
       <c r="N1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1056" t="inlineStr"/>
-      <c r="P1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1056" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1056" t="inlineStr">
+        <is>
+          <t>Serial number 1055 does not have any valid parent or spouse relationship with other voters in house number 52 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
@@ -74190,10 +74654,18 @@
         </is>
       </c>
       <c r="N1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1057" t="inlineStr"/>
-      <c r="P1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1057" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1057" t="inlineStr">
+        <is>
+          <t>Serial number 1056 does not have any valid parent or spouse relationship with other voters in house number 52 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
@@ -74404,10 +74876,18 @@
         </is>
       </c>
       <c r="N1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1060" t="inlineStr"/>
-      <c r="P1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1060" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1060" t="inlineStr">
+        <is>
+          <t>Serial number 1059 does not have any valid parent or spouse relationship with other voters in house number 55 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
@@ -74536,10 +75016,18 @@
         </is>
       </c>
       <c r="N1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1062" t="inlineStr"/>
-      <c r="P1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1062" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1062" t="inlineStr">
+        <is>
+          <t>Serial number 1061 does not have any valid parent or spouse relationship with other voters in house number 55 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
@@ -74948,10 +75436,18 @@
         </is>
       </c>
       <c r="N1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1068" t="inlineStr"/>
-      <c r="P1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1068" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1068" t="inlineStr">
+        <is>
+          <t>Serial number 1067 does not have any valid parent or spouse relationship with other voters in house number 57 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
@@ -75476,10 +75972,18 @@
         </is>
       </c>
       <c r="N1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1076" t="inlineStr"/>
-      <c r="P1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1076" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1076" t="inlineStr">
+        <is>
+          <t>Serial number 1075 does not have any valid parent or spouse relationship with other voters in house number 61 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
@@ -75608,10 +76112,18 @@
         </is>
       </c>
       <c r="N1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1078" t="inlineStr"/>
-      <c r="P1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1078" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1078" t="inlineStr">
+        <is>
+          <t>Serial number 1077 does not have any valid parent or spouse relationship with other voters in house number 61 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
@@ -75674,10 +76186,18 @@
         </is>
       </c>
       <c r="N1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1079" t="inlineStr"/>
-      <c r="P1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1079" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1079" t="inlineStr">
+        <is>
+          <t>Serial number 1078 does not have any valid parent or spouse relationship with other voters in house number 61 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
@@ -75740,10 +76260,18 @@
         </is>
       </c>
       <c r="N1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1080" t="inlineStr"/>
-      <c r="P1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1080" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1080" t="inlineStr">
+        <is>
+          <t>Serial number 1079 does not have any valid parent or spouse relationship with other voters in house number 61 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
@@ -76078,10 +76606,18 @@
         </is>
       </c>
       <c r="N1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1085" t="inlineStr"/>
-      <c r="P1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1085" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1085" t="inlineStr">
+        <is>
+          <t>Serial number 1084 does not have any valid parent or spouse relationship with other voters in house number 63 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
@@ -76284,10 +76820,18 @@
         </is>
       </c>
       <c r="N1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1088" t="inlineStr"/>
-      <c r="P1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1088" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1088" t="inlineStr">
+        <is>
+          <t>Serial number 1087 does not have any valid parent or spouse relationship with other voters in house number 65 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
@@ -76350,10 +76894,18 @@
         </is>
       </c>
       <c r="N1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1089" t="inlineStr"/>
-      <c r="P1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1089" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1089" t="inlineStr">
+        <is>
+          <t>Serial number 1088 does not have any valid parent or spouse relationship with other voters in house number 65 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
@@ -77776,10 +78328,18 @@
         </is>
       </c>
       <c r="N1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1110" t="inlineStr"/>
-      <c r="P1110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1110" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1110" t="inlineStr">
+        <is>
+          <t>Serial number 1109 does not have any valid parent or spouse relationship with other voters in house number 76 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
@@ -79670,10 +80230,18 @@
         </is>
       </c>
       <c r="N1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1137" t="inlineStr"/>
-      <c r="P1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1137" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1137" t="inlineStr">
+        <is>
+          <t>Serial number 1136 does not have any valid parent or spouse relationship with other voters in house number 93 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
@@ -79736,10 +80304,18 @@
         </is>
       </c>
       <c r="N1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1138" t="inlineStr"/>
-      <c r="P1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1138" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1138" t="inlineStr">
+        <is>
+          <t>Serial number 1137 does not have any valid parent or spouse relationship with other voters in house number 93 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
@@ -79802,10 +80378,18 @@
         </is>
       </c>
       <c r="N1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1139" t="inlineStr"/>
-      <c r="P1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1139" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1139" t="inlineStr">
+        <is>
+          <t>Serial number 1138 does not have any valid parent or spouse relationship with other voters in house number 94 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
@@ -79934,10 +80518,18 @@
         </is>
       </c>
       <c r="N1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1141" t="inlineStr"/>
-      <c r="P1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1141" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1141" t="inlineStr">
+        <is>
+          <t>Serial number 1140 does not have any valid parent or spouse relationship with other voters in house number 94 on street '4-Arijana Colony Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
